--- a/synthesis and comparison/results.xlsx
+++ b/synthesis and comparison/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahbo\OneDrive\Documents\GitHub\aftab-cfi-pla\synthesis and comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b541f00bc258be9/Documents/GitHub/aftab-cfi-pla/synthesis and comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32D315B-3BB2-47FE-86C9-404C730F6460}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{D9EEC037-ED42-4D4D-A3BC-A59319E62513}"/>
   </bookViews>
@@ -130,10 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +451,7 @@
   <dimension ref="A3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I6"/>
+      <selection activeCell="I6" sqref="A5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -467,17 +467,17 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -525,23 +525,23 @@
         <v>4.5110410094637228</v>
       </c>
       <c r="E5" s="2">
-        <v>3220</v>
+        <v>3184</v>
       </c>
       <c r="F5" s="2">
         <f>(E5/B5)*100</f>
-        <v>5.0788643533123023</v>
+        <v>5.0220820189274447</v>
       </c>
       <c r="G5" s="2">
         <f>E5-C5</f>
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="H5" s="2">
         <f>(G5/C5)*100</f>
-        <v>12.587412587412588</v>
-      </c>
-      <c r="I5" s="4">
+        <v>11.328671328671328</v>
+      </c>
+      <c r="I5" s="3">
         <f>(G5/B5)*100</f>
-        <v>0.56782334384858046</v>
+        <v>0.51104100946372244</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -573,7 +573,7 @@
         <f>(G6/C6)*100</f>
         <v>34.704073789392773</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f>(G6/B6)*100</f>
         <v>0.71214511041009465</v>
       </c>

--- a/synthesis and comparison/results.xlsx
+++ b/synthesis and comparison/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b541f00bc258be9/Documents/GitHub/aftab-cfi-pla/synthesis and comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32D315B-3BB2-47FE-86C9-404C730F6460}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6231C5-DEC9-41FD-9801-0DCEA036A6DC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{D9EEC037-ED42-4D4D-A3BC-A59319E62513}"/>
   </bookViews>
@@ -149,6 +149,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +455,7 @@
   <dimension ref="A3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I6" sqref="A5:I6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -525,23 +529,23 @@
         <v>4.5110410094637228</v>
       </c>
       <c r="E5" s="2">
-        <v>3184</v>
+        <v>3149</v>
       </c>
       <c r="F5" s="2">
         <f>(E5/B5)*100</f>
-        <v>5.0220820189274447</v>
+        <v>4.9668769716088326</v>
       </c>
       <c r="G5" s="2">
         <f>E5-C5</f>
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="H5" s="2">
         <f>(G5/C5)*100</f>
-        <v>11.328671328671328</v>
+        <v>10.104895104895105</v>
       </c>
       <c r="I5" s="3">
         <f>(G5/B5)*100</f>
-        <v>0.51104100946372244</v>
+        <v>0.45583596214511035</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">

--- a/synthesis and comparison/results.xlsx
+++ b/synthesis and comparison/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b541f00bc258be9/Documents/GitHub/aftab-cfi-pla/synthesis and comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6231C5-DEC9-41FD-9801-0DCEA036A6DC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5ED9B53-7979-4959-99E0-D9864BD074BA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{D9EEC037-ED42-4D4D-A3BC-A59319E62513}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -522,11 +522,11 @@
         <v>63400</v>
       </c>
       <c r="C5" s="2">
-        <v>2860</v>
+        <v>2884</v>
       </c>
       <c r="D5" s="2">
         <f>(C5/B5)*100</f>
-        <v>4.5110410094637228</v>
+        <v>4.5488958990536279</v>
       </c>
       <c r="E5" s="2">
         <v>3149</v>
@@ -537,15 +537,15 @@
       </c>
       <c r="G5" s="2">
         <f>E5-C5</f>
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="H5" s="2">
         <f>(G5/C5)*100</f>
-        <v>10.104895104895105</v>
+        <v>9.1886269070735089</v>
       </c>
       <c r="I5" s="3">
         <f>(G5/B5)*100</f>
-        <v>0.45583596214511035</v>
+        <v>0.41798107255520506</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -556,11 +556,11 @@
         <v>126800</v>
       </c>
       <c r="C6" s="2">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D6" s="2">
         <f>(C6/B6)*100</f>
-        <v>2.05205047318612</v>
+        <v>2.0512618296529967</v>
       </c>
       <c r="E6" s="2">
         <v>3505</v>
@@ -571,15 +571,15 @@
       </c>
       <c r="G6" s="2">
         <f>E6-C6</f>
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H6" s="2">
         <f>(G6/C6)*100</f>
-        <v>34.704073789392773</v>
+        <v>34.755863129565547</v>
       </c>
       <c r="I6" s="3">
         <f>(G6/B6)*100</f>
-        <v>0.71214511041009465</v>
+        <v>0.71293375394321767</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
